--- a/Doc/Planification A2019.xlsx
+++ b/Doc/Planification A2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigol\Desktop\repos\promo-sciences\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C9F469-084E-48A5-9B7C-D32BB8E121AA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411B3E54-87E6-430E-BCD4-2341D8271069}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
   <si>
     <t>Code de couleur pour les tâches et sous tâches :</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Différence (%)</t>
   </si>
   <si>
-    <t>Commentaires</t>
-  </si>
-  <si>
     <t>Planification sommaire projet stage 2019</t>
   </si>
   <si>
@@ -85,7 +82,76 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Ajouter namespace</t>
+    <t>Priorite</t>
+  </si>
+  <si>
+    <t>Algorithme selection menu</t>
+  </si>
+  <si>
+    <t>Add menus and single standalone app to launch (instead of having pairing and algorithme app)</t>
+  </si>
+  <si>
+    <t>Pairing menu</t>
+  </si>
+  <si>
+    <t>Record playthrough video</t>
+  </si>
+  <si>
+    <t>Embed video in submenu</t>
+  </si>
+  <si>
+    <t>Player playback</t>
+  </si>
+  <si>
+    <t>Exact ghost playback (following algorithm)</t>
+  </si>
+  <si>
+    <t>Correctness diagram (Design complexity/Cyclomatic complexity)</t>
+  </si>
+  <si>
+    <t>Performance diagram (Time complexity)</t>
+  </si>
+  <si>
+    <t>Discussion diagrams and algorithme comparisons (Each session)</t>
+  </si>
+  <si>
+    <t>Round playback and path bird eye view (Each Round)</t>
+  </si>
+  <si>
+    <t>Minimap (Bird eye view map) showing runner's progress avaialble to supervisor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add second camera </t>
+  </si>
+  <si>
+    <t>Trace path</t>
+  </si>
+  <si>
+    <t>Edit playthrough subtitles and cuts?</t>
+  </si>
+  <si>
+    <t>Alternative 1</t>
+  </si>
+  <si>
+    <t>Alternative 2</t>
+  </si>
+  <si>
+    <t>Tutorial video</t>
+  </si>
+  <si>
+    <t>Scripted player controller</t>
+  </si>
+  <si>
+    <t>Scripted controller designed to show how to play (pro: more futureproof, cons:longer)</t>
+  </si>
+  <si>
+    <t>Map generation menu</t>
+  </si>
+  <si>
+    <t>Add algorithme pseudocode for reference to the supervisors (e.g pause and look at pseudocode)</t>
+  </si>
+  <si>
+    <t>Pseudocode display</t>
   </si>
 </sst>
 </file>
@@ -195,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -351,11 +417,87 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -378,38 +520,95 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="11" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,38 +926,38 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R111"/>
+  <dimension ref="A1:R131"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+      <selection activeCell="O21" sqref="O21:R21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-    </row>
-    <row r="2" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="4" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="22" t="s">
+    <row r="1" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+    </row>
+    <row r="2" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+    </row>
+    <row r="4" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
       <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
@@ -772,46 +971,46 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="24"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="24"/>
-      <c r="P6" s="24"/>
-      <c r="Q6" s="24"/>
-      <c r="R6" s="28"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="23" t="s">
+      <c r="C6" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="43"/>
+    </row>
+    <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="23" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="23" t="s">
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="24"/>
-      <c r="K7" s="28"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="43"/>
       <c r="L7" s="12" t="s">
         <v>9</v>
       </c>
@@ -821,331 +1020,1138 @@
       <c r="N7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="24"/>
-      <c r="R7" s="28"/>
-    </row>
-    <row r="8" spans="1:18" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="25" t="s">
+      <c r="O7" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="26"/>
-      <c r="K8" s="27"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="43"/>
+    </row>
+    <row r="8" spans="2:18" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
       <c r="L8" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N8" s="16">
         <f t="shared" ref="N8" si="0">(M8/L8) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O8" s="53">
         <v>0</v>
       </c>
-      <c r="O8" s="18"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="30"/>
-    </row>
-    <row r="9" spans="1:18" s="17" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
+      <c r="P8" s="51"/>
+      <c r="Q8" s="51"/>
+      <c r="R8" s="54"/>
+    </row>
+    <row r="9" spans="2:18" s="17" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
       <c r="L9" s="15">
         <v>0.5</v>
       </c>
       <c r="M9" s="15">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="N9" s="16">
         <f t="shared" ref="N9" si="1">(M9/L9) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O9" s="53">
         <v>0</v>
       </c>
-      <c r="O9" s="18"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="30"/>
-    </row>
-    <row r="10" spans="1:18" s="17" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
-      <c r="O10" s="34"/>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="R10" s="33"/>
-    </row>
-    <row r="11" spans="1:18" s="17" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
-      <c r="O11" s="34"/>
-      <c r="P11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-    </row>
-    <row r="12" spans="1:18" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-    </row>
-    <row r="13" spans="1:18" s="17" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="12" t="s">
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="54"/>
+    </row>
+    <row r="10" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C12" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="39"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="39"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
+      <c r="P12" s="39"/>
+      <c r="Q12" s="39"/>
+      <c r="R12" s="40"/>
+    </row>
+    <row r="13" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="44"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="44"/>
+      <c r="K13" s="45"/>
+      <c r="L13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O13" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="44"/>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="45"/>
+    </row>
+    <row r="14" spans="2:18" s="18" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="24"/>
-      <c r="O13" s="24"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="24"/>
-      <c r="R13" s="28"/>
-    </row>
-    <row r="14" spans="1:18" s="17" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="23" t="s">
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="27"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="15">
+        <v>2</v>
+      </c>
+      <c r="M14" s="15">
+        <v>0</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" ref="N14:N15" si="2">(M14/L14) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O14" s="29">
+        <v>3</v>
+      </c>
+      <c r="P14" s="30"/>
+      <c r="Q14" s="30"/>
+      <c r="R14" s="31"/>
+    </row>
+    <row r="15" spans="2:18" s="18" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="30"/>
+      <c r="K15" s="48"/>
+      <c r="L15" s="15">
+        <v>2</v>
+      </c>
+      <c r="M15" s="15">
+        <v>0</v>
+      </c>
+      <c r="N15" s="16">
+        <f t="shared" si="2"/>
+        <v>-1</v>
+      </c>
+      <c r="O15" s="35">
+        <v>3</v>
+      </c>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="37"/>
+    </row>
+    <row r="16" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="30"/>
+      <c r="K16" s="48"/>
+      <c r="L16" s="15">
+        <v>2</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" ref="N16" si="3">(M16/L16) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O16" s="35">
+        <v>3</v>
+      </c>
+      <c r="P16" s="36"/>
+      <c r="Q16" s="36"/>
+      <c r="R16" s="37"/>
+    </row>
+    <row r="17" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="1:18" s="19" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:18" s="19" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="39"/>
+      <c r="M19" s="39"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="39"/>
+      <c r="P19" s="39"/>
+      <c r="Q19" s="39"/>
+      <c r="R19" s="40"/>
+    </row>
+    <row r="20" spans="1:18" s="19" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="24"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="23" t="s">
+      <c r="C20" s="44"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="23" t="s">
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="24"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="12" t="s">
+      <c r="J20" s="44"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N14" s="14" t="s">
+      <c r="N20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O14" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="24"/>
-      <c r="Q14" s="24"/>
-      <c r="R14" s="28"/>
-    </row>
-    <row r="15" spans="1:18" s="17" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="25" t="s">
+      <c r="O20" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="25" t="s">
+      <c r="P20" s="44"/>
+      <c r="Q20" s="44"/>
+      <c r="R20" s="45"/>
+    </row>
+    <row r="21" spans="1:18" s="19" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="27"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="15">
+        <v>2</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" ref="N21" si="4">(M21/L21) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O21" s="29">
+        <v>5</v>
+      </c>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="31"/>
+    </row>
+    <row r="22" spans="1:18" s="19" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
+      <c r="F24" s="39"/>
+      <c r="G24" s="39"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="39"/>
+      <c r="L24" s="39"/>
+      <c r="M24" s="39"/>
+      <c r="N24" s="39"/>
+      <c r="O24" s="39"/>
+      <c r="P24" s="39"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="40"/>
+    </row>
+    <row r="25" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="44"/>
+      <c r="D25" s="45"/>
+      <c r="E25" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J25" s="44"/>
+      <c r="K25" s="45"/>
+      <c r="L25" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="M15" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="N15" s="16">
-        <f t="shared" ref="N15:N16" si="2">(M15/L15) - 1</f>
+      <c r="P25" s="44"/>
+      <c r="Q25" s="44"/>
+      <c r="R25" s="45"/>
+    </row>
+    <row r="26" spans="1:18" s="18" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" s="27"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="15">
+        <v>2</v>
+      </c>
+      <c r="M26" s="15">
         <v>0</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="19"/>
-      <c r="Q15" s="19"/>
-      <c r="R15" s="30"/>
-    </row>
-    <row r="16" spans="1:18" s="17" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="25" t="s">
+      <c r="N26" s="16">
+        <f t="shared" ref="N26:N27" si="5">(M26/L26) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O26" s="29">
+        <v>4</v>
+      </c>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="31"/>
+    </row>
+    <row r="27" spans="1:18" s="18" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="30"/>
+      <c r="K27" s="48"/>
+      <c r="L27" s="15">
+        <v>1</v>
+      </c>
+      <c r="M27" s="15">
+        <v>0</v>
+      </c>
+      <c r="N27" s="16">
+        <f t="shared" si="5"/>
+        <v>-1</v>
+      </c>
+      <c r="O27" s="35">
+        <v>4</v>
+      </c>
+      <c r="P27" s="36"/>
+      <c r="Q27" s="36"/>
+      <c r="R27" s="37"/>
+    </row>
+    <row r="28" spans="1:18" s="18" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="30"/>
+      <c r="K28" s="48"/>
+      <c r="L28" s="15">
+        <v>1</v>
+      </c>
+      <c r="M28" s="15">
+        <v>0</v>
+      </c>
+      <c r="N28" s="16">
+        <f t="shared" ref="N28" si="6">(M28/L28) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O28" s="35">
+        <v>4</v>
+      </c>
+      <c r="P28" s="36"/>
+      <c r="Q28" s="36"/>
+      <c r="R28" s="37"/>
+    </row>
+    <row r="29" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="39"/>
+      <c r="M33" s="39"/>
+      <c r="N33" s="39"/>
+      <c r="O33" s="39"/>
+      <c r="P33" s="39"/>
+      <c r="Q33" s="39"/>
+      <c r="R33" s="40"/>
+    </row>
+    <row r="34" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="45"/>
+      <c r="E34" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="44"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="45"/>
+      <c r="I34" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="44"/>
+      <c r="K34" s="45"/>
+      <c r="L34" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N34" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="25" t="s">
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="45"/>
+    </row>
+    <row r="35" spans="2:18" s="18" customFormat="1" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="25"/>
+      <c r="I35" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="27"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="15">
+        <v>2</v>
+      </c>
+      <c r="M35" s="15">
+        <v>0</v>
+      </c>
+      <c r="N35" s="16">
+        <f t="shared" ref="N35" si="7">(M35/L35) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O35" s="29">
+        <v>4</v>
+      </c>
+      <c r="P35" s="30"/>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="31"/>
+    </row>
+    <row r="36" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="2:18" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="39"/>
+      <c r="E39" s="39"/>
+      <c r="F39" s="39"/>
+      <c r="G39" s="39"/>
+      <c r="H39" s="39"/>
+      <c r="I39" s="39"/>
+      <c r="J39" s="39"/>
+      <c r="K39" s="39"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="39"/>
+      <c r="N39" s="39"/>
+      <c r="O39" s="39"/>
+      <c r="P39" s="39"/>
+      <c r="Q39" s="39"/>
+      <c r="R39" s="40"/>
+    </row>
+    <row r="40" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="42"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J40" s="42"/>
+      <c r="K40" s="43"/>
+      <c r="L40" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M40" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O40" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="M16" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="N16" s="16">
-        <f t="shared" si="2"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="45"/>
+    </row>
+    <row r="41" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="33"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="33"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="15">
+        <v>3</v>
+      </c>
+      <c r="M41" s="15">
         <v>0</v>
       </c>
-      <c r="O16" s="18"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="30"/>
-    </row>
-    <row r="30" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="N41" s="16">
+        <f t="shared" ref="N41:N42" si="8">(M41/L41) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O41" s="29">
+        <v>1</v>
+      </c>
+      <c r="P41" s="30"/>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="31"/>
+    </row>
+    <row r="42" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" s="33"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="33"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="15">
+        <v>3</v>
+      </c>
+      <c r="M42" s="15">
+        <v>0</v>
+      </c>
+      <c r="N42" s="16">
+        <f t="shared" si="8"/>
+        <v>-1</v>
+      </c>
+      <c r="O42" s="35">
+        <v>1</v>
+      </c>
+      <c r="P42" s="36"/>
+      <c r="Q42" s="36"/>
+      <c r="R42" s="37"/>
+    </row>
+    <row r="44" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39"/>
+      <c r="L46" s="39"/>
+      <c r="M46" s="39"/>
+      <c r="N46" s="39"/>
+      <c r="O46" s="39"/>
+      <c r="P46" s="39"/>
+      <c r="Q46" s="39"/>
+      <c r="R46" s="40"/>
+    </row>
+    <row r="47" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="42"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="43"/>
+      <c r="I47" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="42"/>
+      <c r="K47" s="43"/>
+      <c r="L47" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M47" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N47" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O47" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="P47" s="44"/>
+      <c r="Q47" s="44"/>
+      <c r="R47" s="45"/>
+    </row>
+    <row r="48" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="33"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="33"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="33"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="15">
+        <v>2</v>
+      </c>
+      <c r="M48" s="15">
+        <v>0</v>
+      </c>
+      <c r="N48" s="16">
+        <f t="shared" ref="N48:N49" si="9">(M48/L48) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O48" s="29">
+        <v>2</v>
+      </c>
+      <c r="P48" s="30"/>
+      <c r="Q48" s="30"/>
+      <c r="R48" s="31"/>
+    </row>
+    <row r="49" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C49" s="33"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J49" s="33"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="15">
+        <v>2</v>
+      </c>
+      <c r="M49" s="15">
+        <v>0</v>
+      </c>
+      <c r="N49" s="16">
+        <f t="shared" si="9"/>
+        <v>-1</v>
+      </c>
+      <c r="O49" s="35">
+        <v>2</v>
+      </c>
+      <c r="P49" s="36"/>
+      <c r="Q49" s="36"/>
+      <c r="R49" s="37"/>
+    </row>
+    <row r="50" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="D53" s="39"/>
+      <c r="E53" s="39"/>
+      <c r="F53" s="39"/>
+      <c r="G53" s="39"/>
+      <c r="H53" s="39"/>
+      <c r="I53" s="39"/>
+      <c r="J53" s="39"/>
+      <c r="K53" s="39"/>
+      <c r="L53" s="39"/>
+      <c r="M53" s="39"/>
+      <c r="N53" s="39"/>
+      <c r="O53" s="39"/>
+      <c r="P53" s="39"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="40"/>
+    </row>
+    <row r="54" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="42"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="J54" s="42"/>
+      <c r="K54" s="43"/>
+      <c r="L54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M54" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N54" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O54" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="P54" s="44"/>
+      <c r="Q54" s="44"/>
+      <c r="R54" s="45"/>
+    </row>
+    <row r="55" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" s="33"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55" s="33"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="33"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="15">
+        <v>2</v>
+      </c>
+      <c r="M55" s="15">
+        <v>0</v>
+      </c>
+      <c r="N55" s="16">
+        <f t="shared" ref="N55:N56" si="10">(M55/L55) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O55" s="29">
+        <v>5</v>
+      </c>
+      <c r="P55" s="30"/>
+      <c r="Q55" s="30"/>
+      <c r="R55" s="31"/>
+    </row>
+    <row r="56" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C56" s="33"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="33"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="33"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="15">
+        <v>2</v>
+      </c>
+      <c r="M56" s="15"/>
+      <c r="N56" s="16">
+        <f t="shared" si="10"/>
+        <v>-1</v>
+      </c>
+      <c r="O56" s="35">
+        <v>5</v>
+      </c>
+      <c r="P56" s="36"/>
+      <c r="Q56" s="36"/>
+      <c r="R56" s="37"/>
+    </row>
+    <row r="57" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="65" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="66" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="69" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="70" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="71" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="74" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="75" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="76" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="81" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="82" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="85" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="86" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="91" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="92" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="93" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="94" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="95" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="96" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="99" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="100" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="101" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="102" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="111" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="28">
-    <mergeCell ref="C13:R13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="O14:R14"/>
-    <mergeCell ref="O7:R7"/>
-    <mergeCell ref="O8:R8"/>
+  <mergeCells count="106">
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="I21:K21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="I16:K16"/>
     <mergeCell ref="O16:R16"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="E7:H7"/>
     <mergeCell ref="C6:R6"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="E8:H8"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="C12:R12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="O14:R14"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B1:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E16:H16"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="I14:K14"/>
     <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="C39:R39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:H40"/>
+    <mergeCell ref="I40:K40"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="C19:R19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="C24:R24"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="C33:R33"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:H25"/>
+    <mergeCell ref="I25:K25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="O42:R42"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:H42"/>
+    <mergeCell ref="I42:K42"/>
+    <mergeCell ref="C46:R46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="E56:H56"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="O56:R56"/>
+    <mergeCell ref="C53:R53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="O54:R54"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="O55:R55"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="O48:R48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="E49:H49"/>
+    <mergeCell ref="I49:K49"/>
+    <mergeCell ref="O49:R49"/>
   </mergeCells>
-  <conditionalFormatting sqref="N10:N11 N8">
-    <cfRule type="colorScale" priority="5">
+  <conditionalFormatting sqref="N8">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="formula" val="-1"/>
         <cfvo type="formula" val="0"/>
@@ -1157,7 +2163,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="-1"/>
         <cfvo type="formula" val="0"/>
@@ -1169,7 +2187,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N15">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N41">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N42">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N26">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N56">
+    <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="formula" val="-1"/>
         <cfvo type="formula" val="0"/>
@@ -1181,7 +2259,79 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N48">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N49">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N55">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N21">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="-1"/>
         <cfvo type="formula" val="0"/>

--- a/Doc/Planification A2019.xlsx
+++ b/Doc/Planification A2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigol\Desktop\repos\promo-sciences\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{411B3E54-87E6-430E-BCD4-2341D8271069}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994AD012-6A2B-4881-9325-1BF54F2BEFF4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="42">
   <si>
     <t>Code de couleur pour les tâches et sous tâches :</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t>Pseudocode display</t>
+  </si>
+  <si>
+    <t>Add finish round condition</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -522,6 +525,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -530,15 +543,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -558,11 +562,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -575,40 +591,28 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -926,38 +930,38 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:R131"/>
+  <dimension ref="A1:R151"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21:R21"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
     </row>
     <row r="4" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="6" t="s">
         <v>1</v>
       </c>
@@ -975,42 +979,42 @@
       <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="43"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="44"/>
+      <c r="M6" s="44"/>
+      <c r="N6" s="44"/>
+      <c r="O6" s="44"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="45"/>
     </row>
     <row r="7" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="41" t="s">
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="41" t="s">
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="45"/>
+      <c r="I7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="K7" s="43"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="45"/>
       <c r="L7" s="12" t="s">
         <v>9</v>
       </c>
@@ -1020,30 +1024,30 @@
       <c r="N7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="43"/>
+      <c r="P7" s="44"/>
+      <c r="Q7" s="44"/>
+      <c r="R7" s="45"/>
     </row>
     <row r="8" spans="2:18" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="47"/>
+      <c r="I8" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="46"/>
+      <c r="K8" s="47"/>
       <c r="L8" s="15">
         <v>1</v>
       </c>
@@ -1054,30 +1058,30 @@
         <f t="shared" ref="N8" si="0">(M8/L8) - 1</f>
         <v>-1</v>
       </c>
-      <c r="O8" s="53">
+      <c r="O8" s="33">
         <v>0</v>
       </c>
-      <c r="P8" s="51"/>
-      <c r="Q8" s="51"/>
-      <c r="R8" s="54"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="35"/>
     </row>
     <row r="9" spans="2:18" s="17" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="47"/>
+      <c r="I9" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="46"/>
+      <c r="K9" s="47"/>
       <c r="L9" s="15">
         <v>0.5</v>
       </c>
@@ -1088,378 +1092,217 @@
         <f t="shared" ref="N9" si="1">(M9/L9) - 1</f>
         <v>-1</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="33">
         <v>0</v>
       </c>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="54"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="35"/>
     </row>
     <row r="10" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
+    <row r="11" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:18" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="39"/>
-      <c r="K12" s="39"/>
-      <c r="L12" s="39"/>
-      <c r="M12" s="39"/>
-      <c r="N12" s="39"/>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
-    </row>
-    <row r="13" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="41" t="s">
-        <v>7</v>
-      </c>
+      <c r="C13" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
       <c r="F13" s="44"/>
       <c r="G13" s="44"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="41" t="s">
-        <v>8</v>
-      </c>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
       <c r="J13" s="44"/>
-      <c r="K13" s="45"/>
-      <c r="L13" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="O13" s="41" t="s">
-        <v>17</v>
-      </c>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
       <c r="P13" s="44"/>
       <c r="Q13" s="44"/>
       <c r="R13" s="45"/>
     </row>
-    <row r="14" spans="2:18" s="18" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="21"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J14" s="27"/>
-      <c r="K14" s="28"/>
-      <c r="L14" s="15">
-        <v>2</v>
-      </c>
-      <c r="M14" s="15">
-        <v>0</v>
-      </c>
-      <c r="N14" s="16">
-        <f t="shared" ref="N14:N15" si="2">(M14/L14) - 1</f>
-        <v>-1</v>
-      </c>
-      <c r="O14" s="29">
-        <v>3</v>
-      </c>
-      <c r="P14" s="30"/>
-      <c r="Q14" s="30"/>
-      <c r="R14" s="31"/>
-    </row>
-    <row r="15" spans="2:18" s="18" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="32" t="s">
-        <v>20</v>
-      </c>
+    <row r="14" spans="2:18" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="44"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="44"/>
+      <c r="K14" s="45"/>
+      <c r="L14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="44"/>
+      <c r="Q14" s="44"/>
+      <c r="R14" s="45"/>
+    </row>
+    <row r="15" spans="2:18" s="20" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="36"/>
       <c r="C15" s="46"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="48"/>
+      <c r="E15" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
       <c r="L15" s="15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M15" s="15">
         <v>0</v>
       </c>
       <c r="N15" s="16">
+        <f t="shared" ref="N15:N16" si="2">(M15/L15) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O15" s="33">
+        <v>0</v>
+      </c>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="35"/>
+    </row>
+    <row r="16" spans="2:18" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="36"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="47"/>
+      <c r="L16" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="M16" s="15">
+        <v>0</v>
+      </c>
+      <c r="N16" s="16">
         <f t="shared" si="2"/>
         <v>-1</v>
       </c>
-      <c r="O15" s="35">
-        <v>3</v>
-      </c>
-      <c r="P15" s="36"/>
-      <c r="Q15" s="36"/>
-      <c r="R15" s="37"/>
-    </row>
-    <row r="16" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J16" s="30"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="15">
-        <v>2</v>
-      </c>
-      <c r="M16" s="15">
+      <c r="O16" s="33">
         <v>0</v>
       </c>
-      <c r="N16" s="16">
-        <f t="shared" ref="N16" si="3">(M16/L16) - 1</f>
-        <v>-1</v>
-      </c>
-      <c r="O16" s="35">
-        <v>3</v>
-      </c>
-      <c r="P16" s="36"/>
-      <c r="Q16" s="36"/>
-      <c r="R16" s="37"/>
-    </row>
-    <row r="17" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:18" s="19" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:18" s="19" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="12" t="s">
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="35"/>
+    </row>
+    <row r="17" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="25" spans="2:18" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="39"/>
-      <c r="O19" s="39"/>
-      <c r="P19" s="39"/>
-      <c r="Q19" s="39"/>
-      <c r="R19" s="40"/>
-    </row>
-    <row r="20" spans="1:18" s="19" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J20" s="44"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N20" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="O20" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="45"/>
-    </row>
-    <row r="21" spans="1:18" s="19" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J21" s="27"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="15">
-        <v>2</v>
-      </c>
-      <c r="M21" s="15">
-        <v>0</v>
-      </c>
-      <c r="N21" s="16">
-        <f t="shared" ref="N21" si="4">(M21/L21) - 1</f>
-        <v>-1</v>
-      </c>
-      <c r="O21" s="29">
-        <v>5</v>
-      </c>
-      <c r="P21" s="30"/>
-      <c r="Q21" s="30"/>
-      <c r="R21" s="31"/>
-    </row>
-    <row r="22" spans="1:18" s="19" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="39"/>
-      <c r="M24" s="39"/>
-      <c r="N24" s="39"/>
-      <c r="O24" s="39"/>
-      <c r="P24" s="39"/>
-      <c r="Q24" s="39"/>
-      <c r="R24" s="40"/>
-    </row>
-    <row r="25" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="41" t="s">
-        <v>7</v>
-      </c>
+      <c r="C25" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44"/>
       <c r="F25" s="44"/>
       <c r="G25" s="44"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="41" t="s">
-        <v>8</v>
-      </c>
+      <c r="H25" s="44"/>
+      <c r="I25" s="44"/>
       <c r="J25" s="44"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M25" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N25" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="O25" s="41" t="s">
-        <v>17</v>
-      </c>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44"/>
+      <c r="O25" s="44"/>
       <c r="P25" s="44"/>
       <c r="Q25" s="44"/>
       <c r="R25" s="45"/>
     </row>
-    <row r="26" spans="1:18" s="18" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J26" s="27"/>
-      <c r="K26" s="28"/>
-      <c r="L26" s="15">
-        <v>2</v>
-      </c>
-      <c r="M26" s="15">
-        <v>0</v>
-      </c>
-      <c r="N26" s="16">
-        <f t="shared" ref="N26:N27" si="5">(M26/L26) - 1</f>
-        <v>-1</v>
-      </c>
-      <c r="O26" s="29">
-        <v>4</v>
-      </c>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="31"/>
-    </row>
-    <row r="27" spans="1:18" s="18" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="32" t="s">
-        <v>32</v>
+    <row r="26" spans="2:18" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="44"/>
+      <c r="D26" s="45"/>
+      <c r="E26" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="45"/>
+      <c r="I26" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J26" s="44"/>
+      <c r="K26" s="45"/>
+      <c r="L26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N26" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O26" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="44"/>
+      <c r="Q26" s="44"/>
+      <c r="R26" s="45"/>
+    </row>
+    <row r="27" spans="2:18" s="20" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="36" t="s">
+        <v>13</v>
       </c>
       <c r="C27" s="46"/>
       <c r="D27" s="47"/>
-      <c r="E27" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J27" s="30"/>
-      <c r="K27" s="48"/>
+      <c r="E27" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="46"/>
+      <c r="K27" s="47"/>
       <c r="L27" s="15">
         <v>1</v>
       </c>
@@ -1467,131 +1310,160 @@
         <v>0</v>
       </c>
       <c r="N27" s="16">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="N27:N28" si="3">(M27/L27) - 1</f>
         <v>-1</v>
       </c>
-      <c r="O27" s="35">
-        <v>4</v>
-      </c>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="36"/>
-      <c r="R27" s="37"/>
-    </row>
-    <row r="28" spans="1:18" s="18" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="32" t="s">
-        <v>22</v>
+      <c r="O27" s="33">
+        <v>0</v>
+      </c>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
+      <c r="R27" s="35"/>
+    </row>
+    <row r="28" spans="2:18" s="20" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="36" t="s">
+        <v>15</v>
       </c>
       <c r="C28" s="46"/>
       <c r="D28" s="47"/>
-      <c r="E28" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J28" s="30"/>
-      <c r="K28" s="48"/>
+      <c r="E28" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="46"/>
+      <c r="K28" s="47"/>
       <c r="L28" s="15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M28" s="15">
         <v>0</v>
       </c>
       <c r="N28" s="16">
-        <f t="shared" ref="N28" si="6">(M28/L28) - 1</f>
+        <f t="shared" si="3"/>
         <v>-1</v>
       </c>
-      <c r="O28" s="35">
-        <v>4</v>
-      </c>
-      <c r="P28" s="36"/>
-      <c r="Q28" s="36"/>
-      <c r="R28" s="37"/>
-    </row>
-    <row r="29" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="12" t="s">
+      <c r="O28" s="33">
+        <v>0</v>
+      </c>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="35"/>
+    </row>
+    <row r="29" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="32" spans="2:18" s="20" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
-      <c r="P33" s="39"/>
-      <c r="Q33" s="39"/>
-      <c r="R33" s="40"/>
-    </row>
-    <row r="34" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="41" t="s">
+      <c r="C32" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="51"/>
+      <c r="G32" s="51"/>
+      <c r="H32" s="51"/>
+      <c r="I32" s="51"/>
+      <c r="J32" s="51"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="51"/>
+      <c r="M32" s="51"/>
+      <c r="N32" s="51"/>
+      <c r="O32" s="51"/>
+      <c r="P32" s="51"/>
+      <c r="Q32" s="51"/>
+      <c r="R32" s="52"/>
+    </row>
+    <row r="33" spans="1:18" s="20" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C34" s="44"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="41" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="45"/>
-      <c r="I34" s="41" t="s">
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J34" s="44"/>
-      <c r="K34" s="45"/>
-      <c r="L34" s="12" t="s">
+      <c r="J33" s="22"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M34" s="12" t="s">
+      <c r="M33" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="N34" s="14" t="s">
+      <c r="N33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O34" s="41" t="s">
+      <c r="O33" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="P34" s="44"/>
-      <c r="Q34" s="44"/>
-      <c r="R34" s="45"/>
-    </row>
-    <row r="35" spans="2:18" s="18" customFormat="1" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
-      <c r="E35" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" s="27"/>
-      <c r="K35" s="28"/>
+      <c r="P33" s="22"/>
+      <c r="Q33" s="22"/>
+      <c r="R33" s="23"/>
+    </row>
+    <row r="34" spans="1:18" s="20" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="28"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="15">
+        <v>2</v>
+      </c>
+      <c r="M34" s="15">
+        <v>0</v>
+      </c>
+      <c r="N34" s="16">
+        <f t="shared" ref="N34:N35" si="4">(M34/L34) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O34" s="30">
+        <v>3</v>
+      </c>
+      <c r="P34" s="31"/>
+      <c r="Q34" s="31"/>
+      <c r="R34" s="32"/>
+    </row>
+    <row r="35" spans="1:18" s="18" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="36" t="s">
+        <v>20</v>
+      </c>
+      <c r="C35" s="37"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" s="31"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="31"/>
+      <c r="K35" s="39"/>
       <c r="L35" s="15">
         <v>2</v>
       </c>
@@ -1599,59 +1471,92 @@
         <v>0</v>
       </c>
       <c r="N35" s="16">
-        <f t="shared" ref="N35" si="7">(M35/L35) - 1</f>
+        <f t="shared" si="4"/>
         <v>-1</v>
       </c>
-      <c r="O35" s="29">
-        <v>4</v>
-      </c>
-      <c r="P35" s="30"/>
-      <c r="Q35" s="30"/>
-      <c r="R35" s="31"/>
-    </row>
-    <row r="36" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" spans="2:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="2:18" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O35" s="40">
+        <v>3</v>
+      </c>
+      <c r="P35" s="41"/>
+      <c r="Q35" s="41"/>
+      <c r="R35" s="42"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="37"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="31"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" s="31"/>
+      <c r="K36" s="39"/>
+      <c r="L36" s="15">
+        <v>2</v>
+      </c>
+      <c r="M36" s="15">
+        <v>0</v>
+      </c>
+      <c r="N36" s="16">
+        <f t="shared" ref="N36" si="5">(M36/L36) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O36" s="40">
+        <v>3</v>
+      </c>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="42"/>
+    </row>
+    <row r="37" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:18" s="19" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:18" s="19" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B39" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C39" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="D39" s="39"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="39"/>
-      <c r="J39" s="39"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="39"/>
-      <c r="M39" s="39"/>
-      <c r="N39" s="39"/>
-      <c r="O39" s="39"/>
-      <c r="P39" s="39"/>
-      <c r="Q39" s="39"/>
-      <c r="R39" s="40"/>
-    </row>
-    <row r="40" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="41" t="s">
+      <c r="C39" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="52"/>
+    </row>
+    <row r="40" spans="1:18" s="19" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="42"/>
-      <c r="D40" s="43"/>
-      <c r="E40" s="41" t="s">
+      <c r="C40" s="22"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="43"/>
-      <c r="I40" s="41" t="s">
+      <c r="F40" s="22"/>
+      <c r="G40" s="22"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J40" s="42"/>
-      <c r="K40" s="43"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="23"/>
       <c r="L40" s="12" t="s">
         <v>9</v>
       </c>
@@ -1661,249 +1566,259 @@
       <c r="N40" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O40" s="41" t="s">
+      <c r="O40" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="45"/>
-    </row>
-    <row r="41" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J41" s="33"/>
-      <c r="K41" s="34"/>
+      <c r="P40" s="22"/>
+      <c r="Q40" s="22"/>
+      <c r="R40" s="23"/>
+    </row>
+    <row r="41" spans="1:18" s="19" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="28"/>
+      <c r="G41" s="28"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J41" s="28"/>
+      <c r="K41" s="29"/>
       <c r="L41" s="15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M41" s="15">
         <v>0</v>
       </c>
       <c r="N41" s="16">
-        <f t="shared" ref="N41:N42" si="8">(M41/L41) - 1</f>
+        <f t="shared" ref="N41" si="6">(M41/L41) - 1</f>
         <v>-1</v>
       </c>
-      <c r="O41" s="29">
+      <c r="O41" s="30">
+        <v>5</v>
+      </c>
+      <c r="P41" s="31"/>
+      <c r="Q41" s="31"/>
+      <c r="R41" s="32"/>
+    </row>
+    <row r="42" spans="1:18" s="19" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="51"/>
+      <c r="G44" s="51"/>
+      <c r="H44" s="51"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="52"/>
+    </row>
+    <row r="45" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="22"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" s="22"/>
+      <c r="G45" s="22"/>
+      <c r="H45" s="23"/>
+      <c r="I45" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="22"/>
+      <c r="K45" s="23"/>
+      <c r="L45" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N45" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O45" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P45" s="22"/>
+      <c r="Q45" s="22"/>
+      <c r="R45" s="23"/>
+    </row>
+    <row r="46" spans="1:18" s="18" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="F46" s="28"/>
+      <c r="G46" s="28"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="28"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="15">
+        <v>2</v>
+      </c>
+      <c r="M46" s="15">
+        <v>0</v>
+      </c>
+      <c r="N46" s="16">
+        <f t="shared" ref="N46:N47" si="7">(M46/L46) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O46" s="30">
+        <v>4</v>
+      </c>
+      <c r="P46" s="31"/>
+      <c r="Q46" s="31"/>
+      <c r="R46" s="32"/>
+    </row>
+    <row r="47" spans="1:18" s="18" customFormat="1" ht="16.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" s="37"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="39"/>
+      <c r="I47" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="31"/>
+      <c r="K47" s="39"/>
+      <c r="L47" s="15">
         <v>1</v>
       </c>
-      <c r="P41" s="30"/>
-      <c r="Q41" s="30"/>
-      <c r="R41" s="31"/>
-    </row>
-    <row r="42" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C42" s="33"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="34"/>
-      <c r="I42" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J42" s="33"/>
-      <c r="K42" s="34"/>
-      <c r="L42" s="15">
-        <v>3</v>
-      </c>
-      <c r="M42" s="15">
+      <c r="M47" s="15">
         <v>0</v>
       </c>
-      <c r="N42" s="16">
-        <f t="shared" si="8"/>
+      <c r="N47" s="16">
+        <f t="shared" si="7"/>
         <v>-1</v>
       </c>
-      <c r="O42" s="35">
+      <c r="O47" s="40">
+        <v>4</v>
+      </c>
+      <c r="P47" s="41"/>
+      <c r="Q47" s="41"/>
+      <c r="R47" s="42"/>
+    </row>
+    <row r="48" spans="1:18" s="18" customFormat="1" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C48" s="37"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J48" s="31"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="15">
         <v>1</v>
-      </c>
-      <c r="P42" s="36"/>
-      <c r="Q42" s="36"/>
-      <c r="R42" s="37"/>
-    </row>
-    <row r="44" spans="2:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39"/>
-      <c r="L46" s="39"/>
-      <c r="M46" s="39"/>
-      <c r="N46" s="39"/>
-      <c r="O46" s="39"/>
-      <c r="P46" s="39"/>
-      <c r="Q46" s="39"/>
-      <c r="R46" s="40"/>
-    </row>
-    <row r="47" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" s="42"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="F47" s="42"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="42"/>
-      <c r="K47" s="43"/>
-      <c r="L47" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="M47" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N47" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="O47" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="P47" s="44"/>
-      <c r="Q47" s="44"/>
-      <c r="R47" s="45"/>
-    </row>
-    <row r="48" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C48" s="33"/>
-      <c r="D48" s="34"/>
-      <c r="E48" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48" s="33"/>
-      <c r="G48" s="33"/>
-      <c r="H48" s="34"/>
-      <c r="I48" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J48" s="33"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="15">
-        <v>2</v>
       </c>
       <c r="M48" s="15">
         <v>0</v>
       </c>
       <c r="N48" s="16">
-        <f t="shared" ref="N48:N49" si="9">(M48/L48) - 1</f>
+        <f t="shared" ref="N48" si="8">(M48/L48) - 1</f>
         <v>-1</v>
       </c>
-      <c r="O48" s="29">
-        <v>2</v>
-      </c>
-      <c r="P48" s="30"/>
-      <c r="Q48" s="30"/>
-      <c r="R48" s="31"/>
-    </row>
-    <row r="49" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C49" s="33"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="33"/>
-      <c r="H49" s="34"/>
-      <c r="I49" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J49" s="33"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="15">
-        <v>2</v>
-      </c>
-      <c r="M49" s="15">
-        <v>0</v>
-      </c>
-      <c r="N49" s="16">
-        <f t="shared" si="9"/>
-        <v>-1</v>
-      </c>
-      <c r="O49" s="35">
-        <v>2</v>
-      </c>
-      <c r="P49" s="36"/>
-      <c r="Q49" s="36"/>
-      <c r="R49" s="37"/>
-    </row>
-    <row r="50" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="52" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O48" s="40">
+        <v>4</v>
+      </c>
+      <c r="P48" s="41"/>
+      <c r="Q48" s="41"/>
+      <c r="R48" s="42"/>
+    </row>
+    <row r="49" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C53" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="39"/>
-      <c r="E53" s="39"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="39"/>
-      <c r="J53" s="39"/>
-      <c r="K53" s="39"/>
-      <c r="L53" s="39"/>
-      <c r="M53" s="39"/>
-      <c r="N53" s="39"/>
-      <c r="O53" s="39"/>
-      <c r="P53" s="39"/>
-      <c r="Q53" s="39"/>
-      <c r="R53" s="40"/>
-    </row>
-    <row r="54" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="41" t="s">
+      <c r="C53" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="52"/>
+    </row>
+    <row r="54" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C54" s="42"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="41" t="s">
+      <c r="C54" s="22"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="F54" s="42"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="43"/>
-      <c r="I54" s="41" t="s">
+      <c r="F54" s="22"/>
+      <c r="G54" s="22"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J54" s="42"/>
-      <c r="K54" s="43"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="23"/>
       <c r="L54" s="12" t="s">
         <v>9</v>
       </c>
@@ -1913,30 +1828,30 @@
       <c r="N54" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="O54" s="41" t="s">
+      <c r="O54" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="P54" s="44"/>
-      <c r="Q54" s="44"/>
-      <c r="R54" s="45"/>
-    </row>
-    <row r="55" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" s="33"/>
-      <c r="G55" s="33"/>
-      <c r="H55" s="34"/>
-      <c r="I55" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J55" s="33"/>
-      <c r="K55" s="34"/>
+      <c r="P54" s="22"/>
+      <c r="Q54" s="22"/>
+      <c r="R54" s="23"/>
+    </row>
+    <row r="55" spans="1:18" s="18" customFormat="1" ht="51.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="54"/>
+      <c r="G55" s="54"/>
+      <c r="H55" s="55"/>
+      <c r="I55" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="J55" s="28"/>
+      <c r="K55" s="29"/>
       <c r="L55" s="15">
         <v>2</v>
       </c>
@@ -1944,117 +1859,539 @@
         <v>0</v>
       </c>
       <c r="N55" s="16">
-        <f t="shared" ref="N55:N56" si="10">(M55/L55) - 1</f>
+        <f t="shared" ref="N55" si="9">(M55/L55) - 1</f>
         <v>-1</v>
       </c>
-      <c r="O55" s="29">
+      <c r="O55" s="30">
+        <v>4</v>
+      </c>
+      <c r="P55" s="31"/>
+      <c r="Q55" s="31"/>
+      <c r="R55" s="32"/>
+    </row>
+    <row r="56" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:18" s="18" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:18" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P55" s="30"/>
-      <c r="Q55" s="30"/>
-      <c r="R55" s="31"/>
-    </row>
-    <row r="56" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="C56" s="33"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" s="33"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="34"/>
-      <c r="I56" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="33"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="15">
-        <v>2</v>
-      </c>
-      <c r="M56" s="15"/>
-      <c r="N56" s="16">
+      <c r="C59" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="52"/>
+    </row>
+    <row r="60" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C60" s="44"/>
+      <c r="D60" s="45"/>
+      <c r="E60" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="45"/>
+      <c r="I60" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J60" s="44"/>
+      <c r="K60" s="45"/>
+      <c r="L60" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M60" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N60" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O60" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P60" s="22"/>
+      <c r="Q60" s="22"/>
+      <c r="R60" s="23"/>
+    </row>
+    <row r="61" spans="1:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="46"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="47"/>
+      <c r="I61" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" s="46"/>
+      <c r="K61" s="47"/>
+      <c r="L61" s="15">
+        <v>3</v>
+      </c>
+      <c r="M61" s="15">
+        <v>0</v>
+      </c>
+      <c r="N61" s="16">
+        <f t="shared" ref="N61:N62" si="10">(M61/L61) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O61" s="30">
+        <v>1</v>
+      </c>
+      <c r="P61" s="31"/>
+      <c r="Q61" s="31"/>
+      <c r="R61" s="32"/>
+    </row>
+    <row r="62" spans="1:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C62" s="46"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" s="46"/>
+      <c r="G62" s="46"/>
+      <c r="H62" s="47"/>
+      <c r="I62" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="46"/>
+      <c r="K62" s="47"/>
+      <c r="L62" s="15">
+        <v>3</v>
+      </c>
+      <c r="M62" s="15">
+        <v>0</v>
+      </c>
+      <c r="N62" s="16">
         <f t="shared" si="10"/>
         <v>-1</v>
       </c>
-      <c r="O56" s="35">
+      <c r="O62" s="40">
+        <v>1</v>
+      </c>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="42"/>
+    </row>
+    <row r="64" spans="1:18" ht="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="66" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="P56" s="36"/>
-      <c r="Q56" s="36"/>
-      <c r="R56" s="37"/>
-    </row>
-    <row r="57" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="13.2" x14ac:dyDescent="0.25"/>
+      <c r="C66" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="52"/>
+    </row>
+    <row r="67" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C67" s="44"/>
+      <c r="D67" s="45"/>
+      <c r="E67" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="45"/>
+      <c r="I67" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J67" s="44"/>
+      <c r="K67" s="45"/>
+      <c r="L67" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O67" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P67" s="22"/>
+      <c r="Q67" s="22"/>
+      <c r="R67" s="23"/>
+    </row>
+    <row r="68" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C68" s="46"/>
+      <c r="D68" s="47"/>
+      <c r="E68" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68" s="46"/>
+      <c r="G68" s="46"/>
+      <c r="H68" s="47"/>
+      <c r="I68" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J68" s="46"/>
+      <c r="K68" s="47"/>
+      <c r="L68" s="15">
+        <v>2</v>
+      </c>
+      <c r="M68" s="15">
+        <v>0</v>
+      </c>
+      <c r="N68" s="16">
+        <f t="shared" ref="N68:N69" si="11">(M68/L68) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O68" s="30">
+        <v>2</v>
+      </c>
+      <c r="P68" s="31"/>
+      <c r="Q68" s="31"/>
+      <c r="R68" s="32"/>
+    </row>
+    <row r="69" spans="2:18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C69" s="46"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69" s="46"/>
+      <c r="G69" s="46"/>
+      <c r="H69" s="47"/>
+      <c r="I69" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" s="46"/>
+      <c r="K69" s="47"/>
+      <c r="L69" s="15">
+        <v>2</v>
+      </c>
+      <c r="M69" s="15">
+        <v>0</v>
+      </c>
+      <c r="N69" s="16">
+        <f t="shared" si="11"/>
+        <v>-1</v>
+      </c>
+      <c r="O69" s="40">
+        <v>2</v>
+      </c>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="42"/>
+    </row>
+    <row r="70" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="72" spans="2:18" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="52"/>
+    </row>
+    <row r="74" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="44"/>
+      <c r="D74" s="45"/>
+      <c r="E74" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="45"/>
+      <c r="I74" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74" s="44"/>
+      <c r="K74" s="45"/>
+      <c r="L74" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="M74" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N74" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="O74" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="23"/>
+    </row>
+    <row r="75" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75" s="46"/>
+      <c r="D75" s="47"/>
+      <c r="E75" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75" s="46"/>
+      <c r="G75" s="46"/>
+      <c r="H75" s="47"/>
+      <c r="I75" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J75" s="46"/>
+      <c r="K75" s="47"/>
+      <c r="L75" s="15">
+        <v>2</v>
+      </c>
+      <c r="M75" s="15">
+        <v>0</v>
+      </c>
+      <c r="N75" s="16">
+        <f t="shared" ref="N75:N76" si="12">(M75/L75) - 1</f>
+        <v>-1</v>
+      </c>
+      <c r="O75" s="30">
+        <v>5</v>
+      </c>
+      <c r="P75" s="31"/>
+      <c r="Q75" s="31"/>
+      <c r="R75" s="32"/>
+    </row>
+    <row r="76" spans="2:18" s="18" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" s="46"/>
+      <c r="D76" s="47"/>
+      <c r="E76" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76" s="46"/>
+      <c r="G76" s="46"/>
+      <c r="H76" s="47"/>
+      <c r="I76" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J76" s="46"/>
+      <c r="K76" s="47"/>
+      <c r="L76" s="15">
+        <v>2</v>
+      </c>
+      <c r="M76" s="15"/>
+      <c r="N76" s="16">
+        <f t="shared" si="12"/>
+        <v>-1</v>
+      </c>
+      <c r="O76" s="40">
+        <v>5</v>
+      </c>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="42"/>
+    </row>
+    <row r="77" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="2:18" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="83" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="84" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="85" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="86" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="89" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="90" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="91" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="94" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="95" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="96" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="101" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="102" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="105" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="106" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="111" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="112" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="113" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="114" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="115" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="116" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="119" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="120" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="121" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="122" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="13.2" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="13.2" x14ac:dyDescent="0.25"/>
     <row r="131" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="13.2" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="13.2" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="106">
-    <mergeCell ref="O20:R20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="I21:K21"/>
-    <mergeCell ref="O21:R21"/>
-    <mergeCell ref="O9:R9"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="O13:R13"/>
+  <mergeCells count="132">
     <mergeCell ref="B16:D16"/>
     <mergeCell ref="E16:H16"/>
     <mergeCell ref="I16:K16"/>
     <mergeCell ref="O16:R16"/>
+    <mergeCell ref="C13:R13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="I26:K26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="C25:R25"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="O69:R69"/>
+    <mergeCell ref="C66:R66"/>
+    <mergeCell ref="B67:D67"/>
+    <mergeCell ref="E67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="O67:R67"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:H76"/>
+    <mergeCell ref="I76:K76"/>
+    <mergeCell ref="O76:R76"/>
+    <mergeCell ref="C73:R73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="E74:H74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="O74:R74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="E75:H75"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="O75:R75"/>
+    <mergeCell ref="B68:D68"/>
+    <mergeCell ref="E68:H68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="O68:R68"/>
+    <mergeCell ref="B69:D69"/>
+    <mergeCell ref="E69:H69"/>
+    <mergeCell ref="O62:R62"/>
+    <mergeCell ref="O61:R61"/>
+    <mergeCell ref="O60:R60"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="E46:H46"/>
+    <mergeCell ref="I46:K46"/>
+    <mergeCell ref="O46:R46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="E47:H47"/>
+    <mergeCell ref="I47:K47"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="E61:H61"/>
+    <mergeCell ref="I61:K61"/>
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="E62:H62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="E55:H55"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="O55:R55"/>
+    <mergeCell ref="C44:R44"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="E54:H54"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="O54:R54"/>
+    <mergeCell ref="C53:R53"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="E45:H45"/>
+    <mergeCell ref="I45:K45"/>
+    <mergeCell ref="O45:R45"/>
+    <mergeCell ref="C59:R59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:H60"/>
+    <mergeCell ref="I60:K60"/>
+    <mergeCell ref="O47:R47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="E48:H48"/>
+    <mergeCell ref="I48:K48"/>
+    <mergeCell ref="O48:R48"/>
     <mergeCell ref="C6:R6"/>
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="I7:K7"/>
@@ -2063,94 +2400,79 @@
     <mergeCell ref="O8:R8"/>
     <mergeCell ref="B1:G2"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E15:H15"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="C12:R12"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E34:H34"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="C32:R32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:H33"/>
+    <mergeCell ref="O34:R34"/>
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:H7"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I34:K34"/>
+    <mergeCell ref="I35:K35"/>
+    <mergeCell ref="O40:R40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:H41"/>
+    <mergeCell ref="I41:K41"/>
+    <mergeCell ref="O41:R41"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="I33:K33"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="I36:K36"/>
+    <mergeCell ref="O36:R36"/>
+    <mergeCell ref="O35:R35"/>
     <mergeCell ref="C39:R39"/>
     <mergeCell ref="B40:D40"/>
     <mergeCell ref="E40:H40"/>
     <mergeCell ref="I40:K40"/>
-    <mergeCell ref="O27:R27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="O28:R28"/>
-    <mergeCell ref="O15:R15"/>
-    <mergeCell ref="C19:R19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="C24:R24"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:H34"/>
-    <mergeCell ref="I34:K34"/>
-    <mergeCell ref="O34:R34"/>
-    <mergeCell ref="C33:R33"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:H25"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="O25:R25"/>
-    <mergeCell ref="O42:R42"/>
-    <mergeCell ref="O41:R41"/>
-    <mergeCell ref="O40:R40"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E26:H26"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="O26:R26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:H41"/>
-    <mergeCell ref="I41:K41"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:H42"/>
-    <mergeCell ref="I42:K42"/>
-    <mergeCell ref="C46:R46"/>
-    <mergeCell ref="B47:D47"/>
-    <mergeCell ref="E47:H47"/>
-    <mergeCell ref="I47:K47"/>
-    <mergeCell ref="O47:R47"/>
-    <mergeCell ref="B56:D56"/>
-    <mergeCell ref="E56:H56"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="O56:R56"/>
-    <mergeCell ref="C53:R53"/>
-    <mergeCell ref="B54:D54"/>
-    <mergeCell ref="E54:H54"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="O54:R54"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:H35"/>
-    <mergeCell ref="I35:K35"/>
-    <mergeCell ref="O35:R35"/>
-    <mergeCell ref="B55:D55"/>
-    <mergeCell ref="E55:H55"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="O55:R55"/>
-    <mergeCell ref="B48:D48"/>
-    <mergeCell ref="E48:H48"/>
-    <mergeCell ref="I48:K48"/>
-    <mergeCell ref="O48:R48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="E49:H49"/>
-    <mergeCell ref="I49:K49"/>
-    <mergeCell ref="O49:R49"/>
   </mergeCells>
   <conditionalFormatting sqref="N8">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N34">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="formula" val="-1"/>
@@ -2162,7 +2484,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
+  <conditionalFormatting sqref="N61">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N62">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="formula" val="-1"/>
@@ -2174,7 +2508,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
+  <conditionalFormatting sqref="N46">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="formula" val="-1"/>
@@ -2186,7 +2520,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N15">
+  <conditionalFormatting sqref="N47">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="formula" val="-1"/>
@@ -2198,7 +2532,31 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N41">
+  <conditionalFormatting sqref="N76">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N36">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N68">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="formula" val="-1"/>
@@ -2210,7 +2568,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N42">
+  <conditionalFormatting sqref="N69">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="formula" val="-1"/>
@@ -2222,7 +2580,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N26">
+  <conditionalFormatting sqref="N75">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="formula" val="-1"/>
@@ -2234,55 +2592,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N27">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="formula" val="-1"/>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFE67C73"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N56">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="formula" val="-1"/>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFE67C73"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="formula" val="-1"/>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFE67C73"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N48">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="formula" val="-1"/>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <color rgb="FF57BB8A"/>
-        <color rgb="FFFFFFFF"/>
-        <color rgb="FFE67C73"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N49">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="formula" val="-1"/>
@@ -2306,7 +2616,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N28">
+  <conditionalFormatting sqref="N41">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="formula" val="-1"/>
@@ -2318,8 +2628,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N35">
-    <cfRule type="colorScale" priority="6">
+  <conditionalFormatting sqref="N28">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="formula" val="-1"/>
         <cfvo type="formula" val="0"/>
@@ -2330,8 +2640,32 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N21">
-    <cfRule type="colorScale" priority="3">
+  <conditionalFormatting sqref="N27">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="formula" val="-1"/>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <color rgb="FF57BB8A"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FFE67C73"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="formula" val="-1"/>
         <cfvo type="formula" val="0"/>
